--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/20/seed1/result_data_RandomForest.xlsx
@@ -499,7 +499,7 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>4.901800000000003</v>
+        <v>4.858400000000004</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -533,7 +533,7 @@
         <v>-20.35</v>
       </c>
       <c r="B6" t="n">
-        <v>9.306999999999999</v>
+        <v>9.357000000000001</v>
       </c>
       <c r="C6" t="n">
         <v>-12.89</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>5.201699999999997</v>
+        <v>5.158700000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>4.887199999999998</v>
+        <v>4.723000000000001</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -703,7 +703,7 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>8.827300000000003</v>
+        <v>8.971600000000011</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.664099999999996</v>
+        <v>5.455399999999996</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.103899999999999</v>
+        <v>5.158</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
